--- a/Semester_3/Physics_Practicals/Analysis/Experiment3/Experiment3_WIRE_148sensor_15.1wire_2.9source.xlsx
+++ b/Semester_3/Physics_Practicals/Analysis/Experiment3/Experiment3_WIRE_148sensor_15.1wire_2.9source.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A. S. Aurora\Documents\IISER_repo\Semester_3\Physics_Practicals\Analysis\Experiment3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FinalSource" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Distance between consecutive dark</t>
+  </si>
+  <si>
+    <t>Position (mm)</t>
+  </si>
+  <si>
+    <t>Log of Current</t>
+  </si>
+  <si>
+    <t>Current in 1/100 micro-Amperes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,6 +80,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -69,7 +90,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -94,7 +115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$165</c:f>
+              <c:f>FinalSource!$A$2:$A$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="165"/>
@@ -598,7 +619,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$165</c:f>
+              <c:f>FinalSource!$B$2:$B$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="165"/>
@@ -1110,11 +1131,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="63978880"/>
-        <c:axId val="63977344"/>
+        <c:axId val="168753176"/>
+        <c:axId val="168806840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63978880"/>
+        <c:axId val="168753176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,12 +1145,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63977344"/>
+        <c:crossAx val="168806840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63977344"/>
+        <c:axId val="168806840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63978880"/>
+        <c:crossAx val="168753176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1165,7 +1186,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1190,7 +1211,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$165</c:f>
+              <c:f>FinalSource!$C$2:$C$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="165"/>
@@ -1702,13 +1723,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71233536"/>
-        <c:axId val="71235072"/>
+        <c:axId val="169299488"/>
+        <c:axId val="115552248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71233536"/>
+        <c:axId val="169299488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71235072"/>
+        <c:crossAx val="115552248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1725,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71235072"/>
+        <c:axId val="115552248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71233536"/>
+        <c:crossAx val="169299488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1761,7 +1781,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1786,7 +1806,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$165</c:f>
+              <c:f>FinalSource!$A$2:$A$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="165"/>
@@ -2290,7 +2310,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$165</c:f>
+              <c:f>FinalSource!$C$2:$C$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="165"/>
@@ -2802,11 +2822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94252416"/>
-        <c:axId val="94250880"/>
+        <c:axId val="169297792"/>
+        <c:axId val="168906264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94252416"/>
+        <c:axId val="169297792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,12 +2838,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94250880"/>
+        <c:crossAx val="168906264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94250880"/>
+        <c:axId val="168906264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,16 +2855,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94252416"/>
+        <c:crossAx val="169297792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2852,7 +2867,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2863,13 +2878,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2893,13 +2908,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2923,13 +2938,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2995,7 +3010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3030,7 +3045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3239,29 +3254,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A165" activeCellId="1" sqref="C1:C165 A1:A165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <f>LOG(B1)</f>
-        <v>0.69897000433601886</v>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -3273,31 +3292,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">LOG(B3)</f>
+        <f>LOG(B3)</f>
         <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C67" si="0">LOG(B4)</f>
         <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -3309,19 +3328,19 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3333,7 +3352,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -3345,7 +3364,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3357,7 +3376,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3369,7 +3388,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -3381,19 +3400,19 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3405,7 +3424,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -3417,7 +3436,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3429,7 +3448,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -3441,19 +3460,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3465,19 +3484,19 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.47712125471966244</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3489,7 +3508,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -3501,7 +3520,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3513,19 +3532,19 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.47712125471966244</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -3537,43 +3556,43 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>4.8</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -3585,19 +3604,19 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3609,7 +3628,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3621,7 +3640,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -3633,7 +3652,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -3645,7 +3664,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3657,19 +3676,19 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3681,19 +3700,19 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3705,7 +3724,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -3717,7 +3736,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -3729,19 +3748,19 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3753,7 +3772,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -3765,7 +3784,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3777,55 +3796,55 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -3837,7 +3856,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3849,7 +3868,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3861,31 +3880,31 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3897,7 +3916,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3909,67 +3928,67 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.84509804001425681</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.84509804001425681</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -3981,43 +4000,43 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.84509804001425681</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -4029,7 +4048,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -4041,43 +4060,43 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">LOG(B67)</f>
-        <v>0.69897000433601886</v>
+        <f t="shared" si="0"/>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
+        <f t="shared" ref="C68:C131" si="1">LOG(B68)</f>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>0.95424250943932487</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -4089,19 +4108,19 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>0.90308998699194354</v>
+        <v>0.95424250943932487</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -4113,7 +4132,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -4125,31 +4144,31 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
+        <v>0.90308998699194354</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>0.6020599913279624</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4161,7 +4180,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4173,7 +4192,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4185,19 +4204,19 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -4209,43 +4228,43 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>0.95424250943932487</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>1.0413926851582251</v>
+        <v>0.95424250943932487</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>16.399999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>0.90308998699194354</v>
+        <v>1.0413926851582251</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>16.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -4257,19 +4276,19 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>16.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
+        <v>0.90308998699194354</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -4281,19 +4300,19 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>0.6020599913279624</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -4305,7 +4324,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>17.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4317,55 +4336,55 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>17.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>1.1139433523068367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>18.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>1.2041199826559248</v>
+        <v>1.1139433523068367</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>18.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B94">
         <v>16</v>
@@ -4377,55 +4396,55 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>1.146128035678238</v>
+        <v>1.2041199826559248</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>1.1760912590556813</v>
+        <v>1.146128035678238</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>1.0791812460476249</v>
+        <v>1.1760912590556813</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>19.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>0.84509804001425681</v>
+        <v>1.0791812460476249</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>19.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4437,968 +4456,980 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>19.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>1.0413926851582251</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>1.146128035678238</v>
+        <v>1.0413926851582251</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>1.255272505103306</v>
+        <v>1.146128035678238</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="B103">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>1.3979400086720377</v>
+        <v>1.255272505103306</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>1.255272505103306</v>
+        <v>1.3979400086720377</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>1.3617278360175928</v>
+        <v>1.255272505103306</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="B106">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>1.4623979978989561</v>
+        <v>1.3617278360175928</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>1.3802112417116059</v>
+        <v>1.4623979978989561</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
+        <v>1.3802112417116059</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="B109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>1.3979400086720377</v>
+        <v>1.3010299956639813</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>1.0413926851582251</v>
+        <v>1.3979400086720377</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>1.1139433523068367</v>
+        <v>1.0413926851582251</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>1.255272505103306</v>
+        <v>1.1139433523068367</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>1.3424226808222062</v>
+        <v>1.255272505103306</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="B114">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>1.7558748556724915</v>
+        <v>1.3424226808222062</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="B115">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>1.9344984512435677</v>
+        <v>1.7558748556724915</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="B116">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>1.8750612633917001</v>
+        <v>1.9344984512435677</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="B117">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>1.7781512503836436</v>
+        <v>1.8750612633917001</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="B118">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>1.954242509439325</v>
+        <v>1.7781512503836436</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="B119">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.954242509439325</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="B120">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>1.7781512503836436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="B121">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>1.4471580313422192</v>
+        <v>1.7781512503836436</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="B122">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>1.6627578316815741</v>
+        <v>1.4471580313422192</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="B123">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>1.5440680443502757</v>
+        <v>1.6627578316815741</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="B124">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>2.1613680022349748</v>
+        <v>1.5440680443502757</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="B125">
-        <v>520</v>
+        <v>145</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>2.716003343634799</v>
+        <v>2.1613680022349748</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="B126">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>1.6989700043360187</v>
+        <v>2.716003343634799</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="B127">
-        <v>505</v>
+        <v>50</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>2.7032913781186614</v>
+        <v>1.6989700043360187</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="B128">
-        <v>594</v>
+        <v>505</v>
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>2.7737864449811935</v>
+        <v>2.7032913781186614</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="B129">
-        <v>95</v>
+        <v>594</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>1.9777236052888478</v>
+        <v>2.7737864449811935</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="B130">
-        <v>435</v>
+        <v>95</v>
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
-        <v>2.6384892569546374</v>
+        <v>1.9777236052888478</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="B131">
-        <v>663</v>
+        <v>435</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C165" si="2">LOG(B131)</f>
-        <v>2.8215135284047732</v>
+        <f t="shared" si="1"/>
+        <v>2.6384892569546374</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
+        <v>26</v>
+      </c>
+      <c r="B132">
+        <v>663</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C166" si="2">LOG(B132)</f>
+        <v>2.8215135284047732</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>26.2</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>423</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <f t="shared" si="2"/>
         <v>2.6263403673750423</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>26.4</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>3730</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <f t="shared" si="2"/>
         <v>3.5717088318086878</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>26.6</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>4630</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <f t="shared" si="2"/>
         <v>3.6655809910179533</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>26.8</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>3120</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <f t="shared" si="2"/>
         <v>3.4941545940184429</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>27</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>2550</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <f t="shared" si="2"/>
         <v>3.406540180433955</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>27.2</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>5110</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <f t="shared" si="2"/>
         <v>3.7084209001347128</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>27.4</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>12420</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <f t="shared" si="2"/>
         <v>4.0941215958405612</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>27.6</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>10990</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <f t="shared" si="2"/>
         <v>4.0409976924234909</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>27.8</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>5710</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <f t="shared" si="2"/>
         <v>3.7566361082458481</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>28</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>3910</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <f t="shared" si="2"/>
         <v>3.5921767573958667</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>28.2</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>3490</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <f t="shared" si="2"/>
         <v>3.5428254269591797</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>28.4</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>1720</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <f t="shared" si="2"/>
         <v>3.2355284469075487</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>28.6</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>665</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <f t="shared" si="2"/>
         <v>2.8228216453031045</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>28.8</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>413</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <f t="shared" si="2"/>
         <v>2.6159500516564012</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>29</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <v>442</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <f t="shared" si="2"/>
         <v>2.6454222693490919</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>29.2</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>156</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <f t="shared" si="2"/>
         <v>2.1931245983544616</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>29.4</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <f t="shared" si="2"/>
         <v>2.167317334748176</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>29.6</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>143</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <f t="shared" si="2"/>
         <v>2.1553360374650619</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>29.8</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>88</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <f t="shared" si="2"/>
         <v>1.9444826721501687</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>30</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>143</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <f t="shared" si="2"/>
         <v>2.1553360374650619</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>30.2</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>63</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <f t="shared" si="2"/>
         <v>1.7993405494535817</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>30.4</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>48</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <f t="shared" si="2"/>
         <v>1.6812412373755872</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>30.6</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>31</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <f t="shared" si="2"/>
         <v>1.4913616938342726</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>30.8</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>19</v>
       </c>
-      <c r="C155">
+      <c r="C156">
         <f t="shared" si="2"/>
         <v>1.2787536009528289</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>31</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>20</v>
       </c>
-      <c r="C156">
+      <c r="C157">
         <f t="shared" si="2"/>
         <v>1.3010299956639813</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>31.2</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>11</v>
       </c>
-      <c r="C157">
+      <c r="C158">
         <f t="shared" si="2"/>
         <v>1.0413926851582251</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>31.4</v>
       </c>
-      <c r="B158">
+      <c r="B159">
         <v>28</v>
       </c>
-      <c r="C158">
+      <c r="C159">
         <f t="shared" si="2"/>
         <v>1.4471580313422192</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>31.6</v>
       </c>
-      <c r="B159">
+      <c r="B160">
         <v>24</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <f t="shared" si="2"/>
         <v>1.3802112417116059</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>31.8</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <v>33</v>
       </c>
-      <c r="C160">
+      <c r="C161">
         <f t="shared" si="2"/>
         <v>1.5185139398778875</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>32</v>
       </c>
-      <c r="B161">
+      <c r="B162">
         <v>25</v>
       </c>
-      <c r="C161">
+      <c r="C162">
         <f t="shared" si="2"/>
         <v>1.3979400086720377</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>32.200000000000003</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>33</v>
       </c>
-      <c r="C162">
+      <c r="C163">
         <f t="shared" si="2"/>
         <v>1.5185139398778875</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>32.4</v>
       </c>
-      <c r="B163">
+      <c r="B164">
         <v>28</v>
       </c>
-      <c r="C163">
+      <c r="C164">
         <f t="shared" si="2"/>
         <v>1.4471580313422192</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>32.6</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <v>16</v>
       </c>
-      <c r="C164">
+      <c r="C165">
         <f t="shared" si="2"/>
         <v>1.2041199826559248</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>32.799999999999997</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>11</v>
       </c>
-      <c r="C165">
+      <c r="C166">
         <f t="shared" si="2"/>
         <v>1.0413926851582251</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>33</v>
-      </c>
-    </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>33.200000000000003</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>33.4</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>33.799999999999997</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>34</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>34.200000000000003</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>34.4</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>34.799999999999997</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>35</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>35.4</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>35.799999999999997</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>36</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>36.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>36.4</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>36.799999999999997</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>37</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>37.200000000000003</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>37.4</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>37.799999999999997</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>38</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>38.200000000000003</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>38.4</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>38.799999999999997</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>39</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>39.200000000000003</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>39.4</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>39.799999999999997</v>
       </c>
     </row>
@@ -5410,65 +5441,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>8.4</v>
       </c>
-      <c r="B1">
-        <f>(A2-A1)</f>
+      <c r="B2">
+        <f>(A3-A2)</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="C1">
-        <f>AVERAGE(B1:B5)</f>
+      <c r="C2">
+        <f>AVERAGE(B2:B6)</f>
         <v>2.1999999999999997</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2">
+        <f>_xlfn.STDEV.S(B2:B6)</f>
+        <v>0.24494897427831766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10.6</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B5" si="0">(A3-A2)</f>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">(A4-A3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>12.6</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>15.2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>17.2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>2.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>19.399999999999999</v>
       </c>
     </row>

--- a/Semester_3/Physics_Practicals/Analysis/Experiment3/Experiment3_WIRE_148sensor_15.1wire_2.9source.xlsx
+++ b/Semester_3/Physics_Practicals/Analysis/Experiment3/Experiment3_WIRE_148sensor_15.1wire_2.9source.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FinalSource" sheetId="1" r:id="rId1"/>
@@ -1131,11 +1131,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168753176"/>
-        <c:axId val="168806840"/>
+        <c:axId val="228134800"/>
+        <c:axId val="228135192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168753176"/>
+        <c:axId val="228134800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,12 +1145,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168806840"/>
+        <c:crossAx val="228135192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168806840"/>
+        <c:axId val="228135192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168753176"/>
+        <c:crossAx val="228134800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1724,11 +1724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="169299488"/>
-        <c:axId val="115552248"/>
+        <c:axId val="228135584"/>
+        <c:axId val="228135976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169299488"/>
+        <c:axId val="228135584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115552248"/>
+        <c:crossAx val="228135976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115552248"/>
+        <c:axId val="228135976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169299488"/>
+        <c:crossAx val="228135584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2822,11 +2822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169297792"/>
-        <c:axId val="168906264"/>
+        <c:axId val="228134408"/>
+        <c:axId val="228134016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169297792"/>
+        <c:axId val="228134408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,12 +2838,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168906264"/>
+        <c:crossAx val="228134016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168906264"/>
+        <c:axId val="228134016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169297792"/>
+        <c:crossAx val="228134408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3256,7 +3256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5443,8 +5443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
